--- a/simulations/simulation_results.xlsx
+++ b/simulations/simulation_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
   <si>
     <t xml:space="preserve">molecule</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">hexadecane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethanediol</t>
   </si>
 </sst>
 </file>
@@ -221,13 +224,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A87" activeCellId="0" sqref="A87:G92"/>
+      <selection pane="topLeft" activeCell="A93" activeCellId="0" sqref="A93:H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -256,2212 +259,2212 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>598.62</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>135.55</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="2" t="n">
         <v>8.4677</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="2" t="n">
         <v>-3.3338</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="2" t="n">
         <v>0.38815</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="2" t="n">
         <v>0.22294</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="2" t="n">
         <v>1.8987E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>540.97</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>184.27</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>7.9153</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="2" t="n">
         <v>-2.4914</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.17562</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="2" t="n">
         <v>0.17301</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="2" t="n">
         <v>5.2744E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>450.66</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>247.38</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>11.396</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>-1.6576</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.082168</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="2" t="n">
         <v>0.11782</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="2" t="n">
         <v>0.0001365</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="2" t="n">
         <v>308.42</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="2" t="n">
         <v>310.47</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>61.119</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <v>-0.91227</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.035334</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="2" t="n">
         <v>0.061351</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.0003613</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>16.067</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="2" t="n">
         <v>246.96</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>9.3787</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="2" t="n">
         <v>-0.064591</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.0081869</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="2" t="n">
         <v>0.015338</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.0066563</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>721.87</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="2" t="n">
         <v>94.076</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="2" t="n">
         <v>2.8624</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="2" t="n">
         <v>-4.5467</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="2" t="n">
         <v>3.1202</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="2" t="n">
         <v>0.21945</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="2" t="n">
         <v>1.5769E-006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="2" t="n">
         <v>671.06</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="2" t="n">
         <v>143.09</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>-4.5537</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="2" t="n">
         <v>-3.4475</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.57641</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="2" t="n">
         <v>0.18193</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="2" t="n">
         <v>1.1712E-005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>592.59</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="2" t="n">
         <v>220.06</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="2" t="n">
         <v>18.218</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="2" t="n">
         <v>-2.3164</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="2" t="n">
         <v>0.20268</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="2" t="n">
         <v>0.13454</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="2" t="n">
         <v>4.8891E-005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>432.67</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="2" t="n">
         <v>334.47</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="2" t="n">
         <v>23.536</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="2" t="n">
         <v>-1.1917</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="2" t="n">
         <v>0.062521</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="2" t="n">
         <v>0.076826</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="2" t="n">
         <v>0.00019923</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>1.1256</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="2" t="n">
         <v>220.06</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="2" t="n">
         <v>0.46198</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="2" t="n">
         <v>-0.0054946</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="2" t="n">
         <v>0.0063189</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="2" t="n">
         <v>0.010204</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="2" t="n">
         <v>0.074363</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>723.12</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="2" t="n">
         <v>207.73</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="2" t="n">
         <v>46.542</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="2" t="n">
         <v>-2.7989</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="2" t="n">
         <v>0.8528</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="2" t="n">
         <v>0.12325</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="2" t="n">
         <v>1.1487E-005</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>668.69</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="2" t="n">
         <v>276.56</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="2" t="n">
         <v>47.847</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="2" t="n">
         <v>-2.1205</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="2" t="n">
         <v>0.33426</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="2" t="n">
         <v>0.11266</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="2" t="n">
         <v>3.4334E-005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>575.01</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="2" t="n">
         <v>383.3</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="2" t="n">
         <v>50.235</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="2" t="n">
         <v>-1.4148</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="2" t="n">
         <v>0.14119</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="2" t="n">
         <v>0.093022</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="2" t="n">
         <v>9.8579E-005</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>401.83</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="2" t="n">
         <v>510.88</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="2" t="n">
         <v>48.334</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="2" t="n">
         <v>-0.74657</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="2" t="n">
         <v>0.050907</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="2" t="n">
         <v>0.064095</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="2" t="n">
         <v>0.00030435</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>7.4016</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="2" t="n">
         <v>383.3</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="2" t="n">
         <v>2.4913</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="2" t="n">
         <v>-0.020003</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="2" t="n">
         <v>0.007597</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="2" t="n">
         <v>0.019846</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="2" t="n">
         <v>0.01561</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>761.68</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="2" t="n">
         <v>219.7</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="2" t="n">
         <v>2.0632</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="2" t="n">
         <v>-2.7275</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="2" t="n">
         <v>1.973</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="2" t="n">
         <v>0.15877</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="2" t="n">
         <v>4.2517E-006</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>709.08</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="2" t="n">
         <v>291.54</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="2" t="n">
         <v>8.9105</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="2" t="n">
         <v>-2.0749</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="2" t="n">
         <v>0.5737</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="2" t="n">
         <v>0.13282</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="2" t="n">
         <v>1.945E-005</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>616.51</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="2" t="n">
         <v>409.07</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="2" t="n">
         <v>8.4399</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="2" t="n">
         <v>-1.3849</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="2" t="n">
         <v>0.19707</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="2" t="n">
         <v>0.10663</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="2" t="n">
         <v>6.8291E-005</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>437.7</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="2" t="n">
         <v>563.99</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="2" t="n">
         <v>13.847</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="2" t="n">
         <v>-0.72324</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="2" t="n">
         <v>0.062104</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="2" t="n">
         <v>0.072336</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="2" t="n">
         <v>0.00024024</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>2.0972</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="2" t="n">
         <v>409.1</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="2" t="n">
         <v>0.52846</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="2" t="n">
         <v>-0.005734</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="2" t="n">
         <v>0.0073079</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="2" t="n">
         <v>0.017784</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="2" t="n">
         <v>0.045883</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>799.96</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="2" t="n">
         <v>96.575</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="2" t="n">
         <v>20.791</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="2" t="n">
         <v>-4.6778</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="2" t="n">
         <v>7.7496</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="2" t="n">
         <v>0.18984</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="2" t="n">
         <v>6.3405E-007</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="2" t="n">
         <v>749.86</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="2" t="n">
         <v>147.33</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="2" t="n">
         <v>1.3977</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="2" t="n">
         <v>-3.5791</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="2" t="n">
         <v>0.94702</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="2" t="n">
         <v>0.17615</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="2" t="n">
         <v>7.2819E-006</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="2" t="n">
         <v>669.04</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="2" t="n">
         <v>229.44</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="2" t="n">
         <v>9.9527</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="2" t="n">
         <v>-2.4138</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="2" t="n">
         <v>0.2834</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="2" t="n">
         <v>0.13518</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="2" t="n">
         <v>3.6013E-005</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="2" t="n">
         <v>496</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="2" t="n">
         <v>367.17</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="2" t="n">
         <v>19.509</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="2" t="n">
         <v>-1.2184</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="2" t="n">
         <v>0.080721</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="2" t="n">
         <v>0.076723</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="2" t="n">
         <v>0.00017151</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="2" t="n">
         <v>0.42344</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="2" t="n">
         <v>229.44</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="2" t="n">
         <v>0.14055</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="2" t="n">
         <v>-0.0020042</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="2" t="n">
         <v>0.0062143</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="2" t="n">
         <v>0.011827</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="2" t="n">
         <v>0.16299</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="2" t="n">
         <v>795.34</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="2" t="n">
         <v>169.73</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="2" t="n">
         <v>8.0275</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="2" t="n">
         <v>-3.3766</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="2" t="n">
         <v>3.3615</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="2" t="n">
         <v>0.13287</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="2" t="n">
         <v>2.3048E-006</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="2" t="n">
         <v>745.48</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="2" t="n">
         <v>232.64</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="2" t="n">
         <v>11.203</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="2" t="n">
         <v>-2.5909</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="2" t="n">
         <v>0.74797</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="2" t="n">
         <v>0.12341</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="2" t="n">
         <v>1.3433E-005</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="2" t="n">
         <v>657.97</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="2" t="n">
         <v>337.54</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="2" t="n">
         <v>9.5989</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="2" t="n">
         <v>-1.7376</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="2" t="n">
         <v>0.23209</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="2" t="n">
         <v>0.10167</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="2" t="n">
         <v>5.3644E-005</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="2" t="n">
         <v>476.21</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="2" t="n">
         <v>497.05</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="2" t="n">
         <v>17.963</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="2" t="n">
         <v>-0.89039</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="2" t="n">
         <v>0.071884</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="2" t="n">
         <v>0.070874</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="2" t="n">
         <v>0.00021462</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <v>1.1139</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="2" t="n">
         <v>337.55</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="2" t="n">
         <v>0.30733</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="2" t="n">
         <v>-0.0036254</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="2" t="n">
         <v>0.007649</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="2" t="n">
         <v>0.015153</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="2" t="n">
         <v>0.079637</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="2" t="n">
         <v>851.18</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="2" t="n">
         <v>144.84</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="2" t="n">
         <v>9.2192</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="2" t="n">
         <v>-3.4617</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="2" t="n">
         <v>1.2459</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="2" t="n">
         <v>0.24626</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="2" t="n">
         <v>6.2692E-006</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="2" t="n">
         <v>782.33</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="2" t="n">
         <v>202.41</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="2" t="n">
         <v>14.712</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="2" t="n">
         <v>-2.6175</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="2" t="n">
         <v>0.3906</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="2" t="n">
         <v>0.20402</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="2" t="n">
         <v>2.5581E-005</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="2" t="n">
         <v>670.6</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="2" t="n">
         <v>286.67</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="2" t="n">
         <v>7.5628</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="2" t="n">
         <v>-1.7364</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="2" t="n">
         <v>0.15226</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="2" t="n">
         <v>0.14048</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="2" t="n">
         <v>8.3276E-005</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="2" t="n">
         <v>469.54</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="2" t="n">
         <v>389.66</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="2" t="n">
         <v>52.462</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="2" t="n">
         <v>-0.9114</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="2" t="n">
         <v>0.058587</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="2" t="n">
         <v>0.080419</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="2" t="n">
         <v>0.00027345</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="2" t="n">
         <v>6.9791</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="2" t="n">
         <v>286.67</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="2" t="n">
         <v>3.3524</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="2" t="n">
         <v>-0.020621</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="2" t="n">
         <v>0.0089533</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="2" t="n">
         <v>0.014683</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="2" t="n">
         <v>0.017419</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="2" t="n">
         <v>867.78</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="2" t="n">
         <v>240.5</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="2" t="n">
         <v>11.111</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="2" t="n">
         <v>-2.7034</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="2" t="n">
         <v>0.48334</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="2" t="n">
         <v>0.25121</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="2" t="n">
         <v>2.4264E-005</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="2" t="n">
         <v>767.93</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="2" t="n">
         <v>321.96</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="2" t="n">
         <v>2.847</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="2" t="n">
         <v>-2.0673</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="2" t="n">
         <v>0.20761</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="2" t="n">
         <v>0.19695</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="2" t="n">
         <v>6.9555E-005</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="2" t="n">
         <v>629.33</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="2" t="n">
         <v>412.07</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="2" t="n">
         <v>23.247</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="2" t="n">
         <v>-1.4241</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="2" t="n">
         <v>0.10372</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="2" t="n">
         <v>0.13334</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="2" t="n">
         <v>0.00016866</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="2" t="n">
         <v>424.98</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="2" t="n">
         <v>483.03</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="2" t="n">
         <v>69.886</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="2" t="n">
         <v>-0.82771</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="2" t="n">
         <v>0.046199</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="2" t="n">
         <v>0.076707</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40" s="2" t="n">
         <v>0.00040455</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="2" t="n">
         <v>28.14</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="2" t="n">
         <v>412.06</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="2" t="n">
         <v>17.683</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="2" t="n">
         <v>-0.090534</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="2" t="n">
         <v>0.012409</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="2" t="n">
         <v>0.023682</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="2" t="n">
         <v>0.0058509</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="2" t="n">
         <v>887.6</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="2" t="n">
         <v>194.48</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="2" t="n">
         <v>3.9302</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="2" t="n">
         <v>-3.2082</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="2" t="n">
         <v>2.7232</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="2" t="n">
         <v>0.16809</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="2" t="n">
         <v>3.4614E-006</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="2" t="n">
         <v>816.6</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="2" t="n">
         <v>270.56</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="2" t="n">
         <v>5.4477</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="2" t="n">
         <v>-2.4432</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="2" t="n">
         <v>0.56526</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="2" t="n">
         <v>0.14787</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="2" t="n">
         <v>1.9936E-005</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="2" t="n">
         <v>700.87</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="2" t="n">
         <v>382.52</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="2" t="n">
         <v>5.9733</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="2" t="n">
         <v>-1.6255</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="2" t="n">
         <v>0.20144</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="2" t="n">
         <v>0.11326</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="2" t="n">
         <v>7.4787E-005</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="2" t="n">
         <v>491.26</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="2" t="n">
         <v>519.63</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="2" t="n">
         <v>40.601</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="2" t="n">
         <v>-0.85256</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="2" t="n">
         <v>0.067213</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="2" t="n">
         <v>0.085947</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="2" t="n">
         <v>0.00026619</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="2" t="n">
         <v>5.1518</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="2" t="n">
         <v>382.52</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="2" t="n">
         <v>2.1243</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="2" t="n">
         <v>-0.014342</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="2" t="n">
         <v>0.010027</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="2" t="n">
         <v>0.019798</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="2" t="n">
         <v>0.024747</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="2" t="n">
         <v>840.85</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="2" t="n">
         <v>252.13</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="2" t="n">
         <v>11.371</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="2" t="n">
         <v>-2.5729</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="2" t="n">
         <v>1.9113</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G47" s="2" t="n">
         <v>0.1404</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="2" t="n">
         <v>5.3695E-006</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="2" t="n">
         <v>776.89</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="2" t="n">
         <v>332.03</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="2" t="n">
         <v>10.004</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="2" t="n">
         <v>-1.9492</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="2" t="n">
         <v>0.55395</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48" s="2" t="n">
         <v>0.12885</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48" s="2" t="n">
         <v>2.3664E-005</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="2" t="n">
         <v>666.84</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="2" t="n">
         <v>455.24</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="2" t="n">
         <v>9.449</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="2" t="n">
         <v>-1.3006</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="2" t="n">
         <v>0.19292</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="G49" s="2" t="n">
         <v>0.10234</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49" s="2" t="n">
         <v>8.0727E-005</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="2" t="n">
         <v>470.79</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="2" t="n">
         <v>604.82</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="2" t="n">
         <v>30.874</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="2" t="n">
         <v>-0.69529</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="2" t="n">
         <v>0.064829</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="G50" s="2" t="n">
         <v>0.079916</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50" s="2" t="n">
         <v>0.00026343</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="2" t="n">
         <v>5.3559</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="2" t="n">
         <v>455.22</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="2" t="n">
         <v>1.6501</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="2" t="n">
         <v>-0.012129</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="2" t="n">
         <v>0.0092368</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="G51" s="2" t="n">
         <v>0.020528</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51" s="2" t="n">
         <v>0.022672</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="2" t="n">
         <v>867.62</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="2" t="n">
         <v>196.34</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="2" t="n">
         <v>3.6394</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="2" t="n">
         <v>-2.877</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" s="2" t="n">
         <v>1.5422</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="G52" s="2" t="n">
         <v>0.20521</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52" s="2" t="n">
         <v>6.094E-006</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="2" t="n">
         <v>785.39</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="2" t="n">
         <v>279.09</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="2" t="n">
         <v>6.8071</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="2" t="n">
         <v>-2.1969</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53" s="2" t="n">
         <v>0.39805</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53" s="2" t="n">
         <v>0.16846</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53" s="2" t="n">
         <v>2.923E-005</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="2" t="n">
         <v>660.67</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="2" t="n">
         <v>389.35</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="2" t="n">
         <v>9.1299</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="2" t="n">
         <v>-1.4677</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="2" t="n">
         <v>0.15458</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="G54" s="2" t="n">
         <v>0.11894</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54" s="2" t="n">
         <v>9.8146E-005</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="2" t="n">
         <v>458.77</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="2" t="n">
         <v>508.55</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="2" t="n">
         <v>58.237</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="2" t="n">
         <v>-0.80093</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" s="2" t="n">
         <v>0.057889</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55" s="2" t="n">
         <v>0.072404</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55" s="2" t="n">
         <v>0.00030273</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="2" t="n">
         <v>8.7917</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="2" t="n">
         <v>389.32</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="2" t="n">
         <v>4.4061</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="2" t="n">
         <v>-0.02545</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56" s="2" t="n">
         <v>0.010419</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="G56" s="2" t="n">
         <v>0.018319</v>
       </c>
-      <c r="H56" s="0" t="n">
+      <c r="H56" s="2" t="n">
         <v>0.014738</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="2" t="n">
         <v>848.2</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="2" t="n">
         <v>205.16</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57" s="2" t="n">
         <v>8.6126</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="2" t="n">
         <v>-2.8524</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57" s="2" t="n">
         <v>1.7406</v>
       </c>
-      <c r="G57" s="0" t="n">
+      <c r="G57" s="2" t="n">
         <v>0.16244</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="H57" s="2" t="n">
         <v>5.6837E-006</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="2" t="n">
         <v>775.85</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="2" t="n">
         <v>281.7</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="2" t="n">
         <v>10.668</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="2" t="n">
         <v>-2.167</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58" s="2" t="n">
         <v>0.45437</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="G58" s="2" t="n">
         <v>0.1351</v>
       </c>
-      <c r="H58" s="0" t="n">
+      <c r="H58" s="2" t="n">
         <v>2.6547E-005</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="2" t="n">
         <v>657.08</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="2" t="n">
         <v>393.7</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="2" t="n">
         <v>5.8554</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" s="2" t="n">
         <v>-1.4307</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59" s="2" t="n">
         <v>0.1593</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="G59" s="2" t="n">
         <v>0.10249</v>
       </c>
-      <c r="H59" s="0" t="n">
+      <c r="H59" s="2" t="n">
         <v>9.1637E-005</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="2" t="n">
         <v>431.71</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="2" t="n">
         <v>527.4</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="2" t="n">
         <v>43.736</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="2" t="n">
         <v>-0.70843</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60" s="2" t="n">
         <v>0.051395</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="G60" s="2" t="n">
         <v>0.066298</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="H60" s="2" t="n">
         <v>0.00032439</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="2" t="n">
         <v>6.0661</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="2" t="n">
         <v>393.71</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61" s="2" t="n">
         <v>2.543</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="2" t="n">
         <v>-0.016154</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61" s="2" t="n">
         <v>0.0093584</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="G61" s="2" t="n">
         <v>0.017866</v>
       </c>
-      <c r="H61" s="0" t="n">
+      <c r="H61" s="2" t="n">
         <v>0.020597</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="2" t="n">
         <v>827.94556999945</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="2" t="n">
         <v>270.734420069725</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="2" t="n">
         <v>-16.5329284625741</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="2" t="n">
         <v>-4.46731136941072</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62" s="2" t="n">
         <v>3.33944179253669</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="G62" s="2" t="n">
         <v>0.138321550928543</v>
       </c>
-      <c r="H62" s="0" t="n">
+      <c r="H62" s="2" t="n">
         <v>1.96860997657231E-006</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="2" t="n">
         <v>739.252640001807</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="2" t="n">
         <v>373.944566493041</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="2" t="n">
         <v>-6.38093558417245</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="2" t="n">
         <v>-3.05429670610356</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63" s="2" t="n">
         <v>0.397215669770769</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="G63" s="2" t="n">
         <v>0.121323055966862</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="H63" s="2" t="n">
         <v>3.08389892552619E-005</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="2" t="n">
         <v>687.477979998582</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="2" t="n">
         <v>420.975912190061</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="2" t="n">
         <v>-3.53996930708942</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="2" t="n">
         <v>-2.4484356132967</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64" s="2" t="n">
         <v>0.226721718030626</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64" s="2" t="n">
         <v>0.113546997928864</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="H64" s="2" t="n">
         <v>6.30226131971387E-005</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="2" t="n">
         <v>494.963910000918</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="2" t="n">
         <v>533.315240362105</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="2" t="n">
         <v>21.5848330172179</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65" s="2" t="n">
         <v>-1.16336895180173</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65" s="2" t="n">
         <v>0.0682901854474654</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="G65" s="2" t="n">
         <v>0.086987475956311</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="H65" s="2" t="n">
         <v>0.0002432438075843</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="2" t="n">
         <v>2.65759629999852</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="2" t="n">
         <v>402.035903403272</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66" s="2" t="n">
         <v>1.12669444106668</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" s="2" t="n">
         <v>-0.0141452261380992</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66" s="2" t="n">
         <v>0.0100370382286591</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G66" s="2" t="n">
         <v>0.0223031417633473</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="H66" s="2" t="n">
         <v>0.0430471476257252</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="2" t="n">
         <v>820.867660000605</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="2" t="n">
         <v>281.493568437496</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="2" t="n">
         <v>-10.4169406553726</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67" s="2" t="n">
         <v>-3.45698369050547</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67" s="2" t="n">
         <v>3.51952350790892</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G67" s="2" t="n">
         <v>0.132314013633152</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="H67" s="2" t="n">
         <v>2.0185654833986E-006</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="2" t="n">
         <v>808.098480002309</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="2" t="n">
         <v>298.541075163353</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="2" t="n">
         <v>-7.31780194798914</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="2" t="n">
         <v>-3.24423672455553</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68" s="2" t="n">
         <v>2.06683060005835</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="G68" s="2" t="n">
         <v>0.130471961592548</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68" s="2" t="n">
         <v>3.74483434451855E-006</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="2" t="n">
         <v>727.735320000121</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="2" t="n">
         <v>395.54405845966</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" s="2" t="n">
         <v>10.362646439084</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69" s="2" t="n">
         <v>-2.17280154878829</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69" s="2" t="n">
         <v>0.366822863129791</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="G69" s="2" t="n">
         <v>0.117592139519681</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="H69" s="2" t="n">
         <v>3.49299441136542E-005</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="2" t="n">
         <v>553.225279998562</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="2" t="n">
         <v>528.865906445504</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" s="2" t="n">
         <v>10.4319261306034</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="2" t="n">
         <v>-1.07906648129385</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70" s="2" t="n">
         <v>0.0925932672136621</v>
       </c>
-      <c r="G70" s="0" t="n">
+      <c r="G70" s="2" t="n">
         <v>0.0920752004072627</v>
       </c>
-      <c r="H70" s="0" t="n">
+      <c r="H70" s="2" t="n">
         <v>0.0001737384634406</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="2" t="n">
         <v>1.35949939999804</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="2" t="n">
         <v>395.546820684078</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="2" t="n">
         <v>0.475877062107977</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="2" t="n">
         <v>-0.00493388456358672</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71" s="2" t="n">
         <v>0.0093555103570249</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="G71" s="2" t="n">
         <v>0.0195883499603033</v>
       </c>
-      <c r="H71" s="0" t="n">
+      <c r="H71" s="2" t="n">
         <v>0.0559619055786582</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="2" t="n">
         <v>839.860120001467</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="2" t="n">
         <v>255.373455647678</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="2" t="n">
         <v>-31.2715930935258</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72" s="2" t="n">
         <v>-4.01167521760242</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72" s="2" t="n">
         <v>3.25772176677368</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="G72" s="2" t="n">
         <v>0.15110806905487</v>
       </c>
-      <c r="H72" s="0" t="n">
+      <c r="H72" s="2" t="n">
         <v>1.8531358804782E-006</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="2" t="n">
         <v>736.010400001163</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="2" t="n">
         <v>367.064184572468</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="2" t="n">
         <v>-30.9969302802689</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73" s="2" t="n">
         <v>-2.65232573178135</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73" s="2" t="n">
         <v>0.341419176078139</v>
       </c>
-      <c r="G73" s="0" t="n">
+      <c r="G73" s="2" t="n">
         <v>0.131710104857551</v>
       </c>
-      <c r="H73" s="0" t="n">
+      <c r="H73" s="2" t="n">
         <v>3.6193175716381E-005</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="2" t="n">
         <v>723.727229998454</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="2" t="n">
         <v>382.455148233357</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74" s="2" t="n">
         <v>6.0985615907729</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74" s="2" t="n">
         <v>-2.49869335210541</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="F74" s="2" t="n">
         <v>0.294507451454891</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="G74" s="2" t="n">
         <v>0.121432946473125</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="H74" s="2" t="n">
         <v>4.53644394515389E-005</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="2" t="n">
         <v>505.509959999566</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="2" t="n">
         <v>505.590421956716</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75" s="2" t="n">
         <v>28.5668593000519</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75" s="2" t="n">
         <v>-1.1568458453618</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75" s="2" t="n">
         <v>0.0688886408188797</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="G75" s="2" t="n">
         <v>0.0891960715375524</v>
       </c>
-      <c r="H75" s="0" t="n">
+      <c r="H75" s="2" t="n">
         <v>0.000238112772629</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="2" t="n">
         <v>1.46165050000239</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="2" t="n">
         <v>367.10203332898</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76" s="2" t="n">
         <v>0.7038140657722</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76" s="2" t="n">
         <v>-0.010191409078013</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76" s="2" t="n">
         <v>0.0086971501809186</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="G76" s="2" t="n">
         <v>0.0197135365514208</v>
       </c>
-      <c r="H76" s="0" t="n">
+      <c r="H76" s="2" t="n">
         <v>0.0671726781150618</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="2" t="n">
         <v>853.19203000086</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="2" t="n">
         <v>226.533241132528</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77" s="2" t="n">
         <v>-38.6005777910974</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77" s="2" t="n">
         <v>-4.22591095342795</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77" s="2" t="n">
         <v>3.08826397468403</v>
       </c>
-      <c r="G77" s="0" t="n">
+      <c r="G77" s="2" t="n">
         <v>0.174006634922858</v>
       </c>
-      <c r="H77" s="0" t="n">
+      <c r="H77" s="2" t="n">
         <v>1.3549008848392E-006</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="2" t="n">
         <v>782.927759999668</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="2" t="n">
         <v>303.398665450313</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="2" t="n">
         <v>-21.4961534595053</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78" s="2" t="n">
         <v>-3.49914150576845</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78" s="2" t="n">
         <v>0.592945898848732</v>
       </c>
-      <c r="G78" s="0" t="n">
+      <c r="G78" s="2" t="n">
         <v>0.151972984305171</v>
       </c>
-      <c r="H78" s="0" t="n">
+      <c r="H78" s="2" t="n">
         <v>1.47712849525715E-005</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="2" t="n">
         <v>621.540459999711</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="2" t="n">
         <v>432.496267363815</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79" s="2" t="n">
         <v>12.9015559458019</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="2" t="n">
         <v>-2.28744115530744</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79" s="2" t="n">
         <v>0.121115728974214</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="G79" s="2" t="n">
         <v>0.121936825546165</v>
       </c>
-      <c r="H79" s="0" t="n">
+      <c r="H79" s="2" t="n">
         <v>0.0001258457531153</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="2" t="n">
         <v>258.633159999649</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="2" t="n">
         <v>532.720665011411</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80" s="2" t="n">
         <v>89.7538604261085</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80" s="2" t="n">
         <v>-0.856946868837507</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80" s="2" t="n">
         <v>0.0257936737220883</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="G80" s="2" t="n">
         <v>0.0733325313422762</v>
       </c>
-      <c r="H80" s="0" t="n">
+      <c r="H80" s="2" t="n">
         <v>0.0007423705715328</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="2" t="n">
         <v>0.157218300000038</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="2" t="n">
         <v>303.419283541528</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="2" t="n">
         <v>0.0815150343662371</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="2" t="n">
         <v>-0.0427500824989221</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81" s="2" t="n">
         <v>0.0053085859538696</v>
       </c>
-      <c r="G81" s="0" t="n">
+      <c r="G81" s="2" t="n">
         <v>0.0222403000496848</v>
       </c>
-      <c r="H81" s="0" t="n">
+      <c r="H81" s="2" t="n">
         <v>0.11207497082462</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="2" t="n">
         <v>796.406850000435</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="2" t="n">
         <v>299.811057474434</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82" s="2" t="n">
         <v>3.78095024417629</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82" s="2" t="n">
         <v>-4.40687489914211</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82" s="2" t="n">
         <v>0.385630062483954</v>
       </c>
-      <c r="G82" s="0" t="n">
+      <c r="G82" s="2" t="n">
         <v>0.234910860464883</v>
       </c>
-      <c r="H82" s="0" t="n">
+      <c r="H82" s="2" t="n">
         <v>2.83195258796367E-005</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="2" t="n">
         <v>627.305219998915</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="2" t="n">
         <v>425.357807184126</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" s="2" t="n">
         <v>11.2771487822072</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="2" t="n">
         <v>-3.25165528598101</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83" s="2" t="n">
         <v>0.10942794688199</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="G83" s="2" t="n">
         <v>0.168573047000319</v>
       </c>
-      <c r="H83" s="0" t="n">
+      <c r="H83" s="2" t="n">
         <v>0.0001541924167488</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="2" t="n">
         <v>598.405129998826</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="2" t="n">
         <v>439.343155926551</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="2" t="n">
         <v>27.8955864623563</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84" s="2" t="n">
         <v>-3.09485834767463</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84" s="2" t="n">
         <v>0.0898332622000297</v>
       </c>
-      <c r="G84" s="0" t="n">
+      <c r="G84" s="2" t="n">
         <v>0.162958587736242</v>
       </c>
-      <c r="H84" s="0" t="n">
+      <c r="H84" s="2" t="n">
         <v>0.0001836955538684</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="2" t="n">
         <v>175.822850000191</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="2" t="n">
         <v>533.460873798824</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85" s="2" t="n">
         <v>110.34732450414</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="2" t="n">
         <v>-1.29591997656287</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" s="2" t="n">
         <v>0.0217508377609153</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="G85" s="2" t="n">
         <v>0.086058188727496</v>
       </c>
-      <c r="H85" s="0" t="n">
+      <c r="H85" s="2" t="n">
         <v>0.0012509971899319</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="2" t="n">
         <v>0.234716059999647</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="2" t="n">
         <v>306.627090903171</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86" s="2" t="n">
         <v>0.180894967051285</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86" s="2" t="n">
         <v>-0.326271362888185</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86" s="2" t="n">
         <v>0.007592622752833</v>
       </c>
-      <c r="G86" s="0" t="n">
+      <c r="G86" s="2" t="n">
         <v>0.0151786477052857</v>
       </c>
-      <c r="H86" s="0" t="n">
+      <c r="H86" s="2" t="n">
         <v>0.176372763680272</v>
       </c>
     </row>
@@ -2590,6 +2593,136 @@
         <v>0.57884147</v>
       </c>
       <c r="G92" s="2"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>1098.70160000289</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>350.002782088347</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>-30.088981348201</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>-2.91548916290948</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>2.39008923422708</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>0.275408191978052</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>6.28241699208571E-006</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>1049.81880000276</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>400.774947458695</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>-67.7427472348053</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>-2.5596599649234</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>0.958968052806774</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>0.295970399152086</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>1.7442259471232E-005</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>887.563269996406</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>551.248435521984</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>9.93456828715769</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>-1.7021008829898</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>0.238222010985528</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>0.241305114002295</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>9.03376339578948E-005</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>721.423209999285</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>655.876897496055</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>69.7150585921276</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>-1.16354797084158</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>0.115720691250305</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>0.179066632173607</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>0.0002047060010065</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>9.10498840002035</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>551.270990420747</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>5.83615268623254</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>-0.0326696150566699</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>0.0140651325750033</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>0.0368081094234531</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>0.0203804867810468</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
